--- a/Excel2Cfgs/src/main/resources/模板_template.xlsx
+++ b/Excel2Cfgs/src/main/resources/模板_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="9120"/>
+    <workbookView windowWidth="21216" windowHeight="9120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -25,12 +25,6 @@
   </si>
   <si>
     <t>描述</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>id</t>
@@ -77,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -99,7 +93,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,48 +114,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,6 +136,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -184,32 +177,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,14 +192,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,31 +238,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,151 +406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,47 +429,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -512,6 +465,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -527,11 +500,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,10 +535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,133 +547,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,13 +998,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1031,23 +1025,23 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>8</v>
+      <c r="A4">
+        <v>1111</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1058,7 +1052,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1111</v>
+        <v>2222</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1069,7 +1063,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2222</v>
+        <v>3333</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1078,23 +1072,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>3333</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 B2 C2">
-      <formula1>"int,string,long,double"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4 B4 C4">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 B3 C3">
       <formula1>"ALL,SERVER,CLIENT"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1106,13 +1086,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1132,34 +1112,23 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>8</v>
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 B2">
-      <formula1>"int,string,long,double"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4 B4">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 B3">
       <formula1>"ALL,SERVER,CLIENT"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel2Cfgs/src/main/resources/模板_template.xlsx
+++ b/Excel2Cfgs/src/main/resources/模板_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="9120" activeTab="1"/>
+    <workbookView windowHeight="16460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>ID</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>desc</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t>ALL</t>
@@ -72,9 +78,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -85,6 +91,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -92,6 +121,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -99,30 +167,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,16 +212,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,71 +228,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,187 +244,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,8 +441,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,6 +452,56 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,26 +521,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -499,181 +535,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -682,54 +688,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -996,15 +1002,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1036,12 +1042,12 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
-        <v>1111</v>
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1052,7 +1058,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1063,18 +1069,29 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>3333</v>
+        <v>2222</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>3333</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 B3 C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4 B4 C4">
       <formula1>"ALL,SERVER,CLIENT"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1084,15 +1101,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.4" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1119,16 +1136,24 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
+      <c r="B5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4 B4">
       <formula1>"ALL,SERVER,CLIENT"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1138,7 +1163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1146,7 +1171,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/Excel2Cfgs/src/main/resources/模板_template.xlsx
+++ b/Excel2Cfgs/src/main/resources/模板_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16460" activeTab="1"/>
+    <workbookView windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -77,12 +77,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,31 +91,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,8 +142,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,32 +189,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,65 +236,13 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,49 +251,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,127 +395,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,8 +460,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,32 +470,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -497,11 +490,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,169 +541,181 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1006,53 +1037,59 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="14.0178571428571" customWidth="1"/>
+    <col min="2" max="2" width="14.5535714285714" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" s="4" customFormat="1" ht="13.2" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" s="4" customFormat="1" ht="13.2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="3" s="4" customFormat="1" ht="13.2" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="4" s="4" customFormat="1" ht="13.2" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1090,7 +1127,10 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="选择类型" sqref="A3 B3 C3">
+      <formula1>"int,string,long"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4 B4 C4">
       <formula1>"ALL,SERVER,CLIENT"</formula1>
     </dataValidation>
@@ -1105,41 +1145,43 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.4" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="13.2" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" s="1" customFormat="1" ht="13.2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" s="1" customFormat="1" ht="13.2" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1152,7 +1194,10 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="选择类型" sqref="A3 B3">
+      <formula1>"int,string,long"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4 B4">
       <formula1>"ALL,SERVER,CLIENT"</formula1>
     </dataValidation>
@@ -1167,7 +1212,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/Excel2Cfgs/src/main/resources/模板_template.xlsx
+++ b/Excel2Cfgs/src/main/resources/模板_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020"/>
+    <workbookView windowWidth="28000" windowHeight="16140"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -77,59 +77,113 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -137,112 +191,58 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,7 +257,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,19 +377,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,157 +413,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,11 +451,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,6 +470,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -490,28 +501,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,17 +525,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,216 +551,210 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1040,16 +1028,16 @@
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14.0178571428571" customWidth="1"/>
-    <col min="2" max="2" width="14.5535714285714" customWidth="1"/>
+    <col min="1" max="1" width="14.015625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="13.2" spans="1:3">
+    <row r="1" s="2" customFormat="1" ht="14.8" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="13.2" spans="1:3">
+    <row r="2" s="2" customFormat="1" ht="14.8" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1071,7 +1059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="13.2" spans="1:3">
+    <row r="3" s="2" customFormat="1" ht="14.8" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1082,7 +1070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="13.2" spans="1:3">
+    <row r="4" s="2" customFormat="1" ht="14.8" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1129,7 +1117,7 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="选择类型" sqref="A3 B3 C3">
-      <formula1>"int,string,long"</formula1>
+      <formula1>"int,string,long,int[],long[]"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4 B4 C4">
       <formula1>"ALL,SERVER,CLIENT"</formula1>
@@ -1151,37 +1139,37 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.890625" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="1" s="1" customFormat="1" ht="14.8" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="2" s="1" customFormat="1" ht="14.8" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="3" s="1" customFormat="1" ht="14.8" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:2">
+    <row r="4" s="1" customFormat="1" ht="14.8" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1216,7 +1204,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="8.890625" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
